--- a/other/Comparison.xlsx
+++ b/other/Comparison.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,76 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>SOURCES</t>
+  </si>
+  <si>
+    <t>FACEBOOK</t>
+  </si>
+  <si>
+    <t>QUORA</t>
+  </si>
+  <si>
+    <t>TWITTER</t>
+  </si>
+  <si>
+    <t>SCIENTOMETRICS</t>
+  </si>
+  <si>
+    <t>GROUND TRUTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average likes per friend :
+</t>
+  </si>
+  <si>
+    <t>Number of retweets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retweet probability : </t>
+  </si>
+  <si>
+    <t>Klout score</t>
+  </si>
+  <si>
+    <t>total number of received citations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average numof citations per paper : </t>
+  </si>
+  <si>
+    <t>H-index</t>
+  </si>
+  <si>
+    <t>FEATURES</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,12 +109,285 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +403,966 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="381000"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66F4509-D15F-46B8-8FC6-88BC50826210}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3933825" y="809625"/>
+              <a:ext cx="2381250" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>s</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑠𝑢𝑚</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜𝑓</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑝𝑜𝑠𝑡</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>′</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑙𝑖𝑘𝑒𝑠</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>+1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜𝑓</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑝𝑜𝑠𝑡𝑠</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> ∗</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜𝑓</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑓𝑟𝑖𝑒𝑛𝑑𝑠</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66F4509-D15F-46B8-8FC6-88BC50826210}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3933825" y="809625"/>
+              <a:ext cx="2381250" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>s</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠𝑢𝑚 𝑜𝑓 𝑝𝑜𝑠𝑡𝑠^′ 𝑙𝑖𝑘𝑒𝑠+1)/(𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑝𝑜𝑠𝑡𝑠 ∗𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑓𝑟𝑖𝑒𝑛𝑑𝑠)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="381000"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2116DE-5E09-436D-8782-2841AA5F6830}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3352800" y="2057400"/>
+              <a:ext cx="2381250" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>s</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜𝑓</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑢𝑝𝑣𝑜𝑡𝑒𝑠</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>+1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜𝑓</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑣𝑖𝑒𝑤𝑠</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2116DE-5E09-436D-8782-2841AA5F6830}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3352800" y="2057400"/>
+              <a:ext cx="2381250" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>s</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑢𝑝𝑣𝑜𝑡𝑒𝑠+1)/(𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑣𝑖𝑒𝑤𝑠)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="381000"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE523A5-5119-498D-B580-9FAB06882C8B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3857625" y="3448050"/>
+              <a:ext cx="2381250" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>s</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜𝑓</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑅𝑒𝑡𝑤𝑒𝑒𝑡𝑠</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜𝑓</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑡𝑤𝑒𝑒𝑡𝑠</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> ∗</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑛𝑢𝑚</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜𝑓</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑓𝑜𝑙𝑙𝑜𝑤𝑒𝑟𝑠</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE523A5-5119-498D-B580-9FAB06882C8B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3857625" y="3448050"/>
+              <a:ext cx="2381250" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>s</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑅𝑒𝑡𝑤𝑒𝑒𝑡𝑠)/(𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑡𝑤𝑒𝑒𝑡𝑠 ∗𝑛𝑢𝑚 𝑜𝑓 𝑓𝑜𝑙𝑙𝑜𝑤𝑒𝑟𝑠)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="381000"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BABD9D-B814-4995-8A45-91E23414CCAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4619625" y="4962525"/>
+              <a:ext cx="2381250" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>s</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑛𝑢𝑚</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜𝑓</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑐𝑖𝑡𝑎𝑡𝑖𝑜𝑛𝑠</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑛𝑢𝑚</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜𝑓</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑝𝑎𝑝𝑒𝑟</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BABD9D-B814-4995-8A45-91E23414CCAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4619625" y="4962525"/>
+              <a:ext cx="2381250" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>s</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛𝑢𝑚 𝑜𝑓 𝑐𝑖𝑡𝑎𝑡𝑖𝑜𝑛𝑠)/(𝑛𝑢𝑚 𝑜𝑓 𝑝𝑎𝑝𝑒𝑟)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1627,439 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:L26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="49"/>
+    <col min="13" max="13" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="H20:L26"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L7"/>
+    <mergeCell ref="H8:L13"/>
+    <mergeCell ref="H14:L19"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="A8:B13"/>
+    <mergeCell ref="A14:B19"/>
+    <mergeCell ref="A20:B26"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/other/Comparison.xlsx
+++ b/other/Comparison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>SOURCES</t>
   </si>
@@ -61,7 +61,55 @@
     <t>H-index</t>
   </si>
   <si>
-    <t>FEATURES</t>
+    <t>#Features</t>
+  </si>
+  <si>
+    <t>57 (including lda and topic presense)</t>
+  </si>
+  <si>
+    <t>CATBOOST - R2Score: 0.3569, 0.4607</t>
+  </si>
+  <si>
+    <t>LGBM - R2Score: 0.4359, 0.4563</t>
+  </si>
+  <si>
+    <t>METHODS  - Score: test, paper</t>
+  </si>
+  <si>
+    <t>CATBOOST - R2Score: 0.8029, 0.8019</t>
+  </si>
+  <si>
+    <t>LGBM - R2Score: 0.7929, 0.7833</t>
+  </si>
+  <si>
+    <t>RANDOM FOREST -R2Score: 0.7557, 0.7544</t>
+  </si>
+  <si>
+    <t>SVM - R2Score: 0.5492, 0.6754</t>
+  </si>
+  <si>
+    <t>RANDOM FOREST -R2Score:  , 0.3897</t>
+  </si>
+  <si>
+    <t>SVM - R2Score: , 0.3180</t>
+  </si>
+  <si>
+    <t>Linear - R2Score: 0.687116055479, -53679.50; Ridge - R2Score - 0.6897, 0.37 ; Lasso - R2Score -0.6719, 0.50; MLP - R2Score - 0.6283, 0.61, CatBoost - R2Score - 0.9043</t>
+  </si>
+  <si>
+    <t>Linear - R2Score: -0.0036, 0.0036; Ridge - R2Score - 0.0201, 0.003 ; Lasso - R2Score -0.0191, 0.003; MLP - R2Score - (-0.717),  0.010, CatBoost - R2Score - 0.0925</t>
+  </si>
+  <si>
+    <t>Linear - R2Score: -0.5187, 0.47;  Ridge - R2Score - 0.5354, 0.51 ; Lasso - R2Score -0.5320, 0.51; MLP - R2Score - 0.4745,  0.53, CatBoost - R2Score - 0.6589</t>
+  </si>
+  <si>
+    <t>Linear - R2Score: 0.73, -21.38 ; Ridge - R2Score - 0.7323, 0.65 ; Lasso - R2Score -0.7217, 0.63; MLP - R2Score - 0.7679,  0.68, CatBoost - R2Score - 0.8950</t>
+  </si>
+  <si>
+    <t>Linear - R2Score: 0.38, -0.05 ; Ridge - R2Score - 0.3763, 0.10 ; Lasso - R2Score -0.7217, 0.3737; MLP - R2Score - 0.4192,  0.15, CatBoost - R2Score - 0.7283</t>
+  </si>
+  <si>
+    <t>Linear - R2Score: 0.736 0.82 ; Ridge - R2Score - 0.7374, 0.84 ; Lasso - R2Score -0.7215, 0.84; MLP - R2Score - 0.7757,  0.86, CatBoost - R2Score - 0.85</t>
   </si>
 </sst>
 </file>
@@ -245,101 +293,155 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -370,24 +472,41 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,8 +534,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2381250" cy="381000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -623,7 +742,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -697,8 +816,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2381250" cy="381000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -838,7 +957,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -912,8 +1031,8 @@
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2381250" cy="381000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1084,7 +1203,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1159,8 +1278,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2381250" cy="381000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1295,7 +1414,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1628,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:L26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,423 +1759,670 @@
     <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="49"/>
-    <col min="13" max="13" width="9.140625" style="27"/>
+    <col min="8" max="13" width="9.140625" style="2"/>
+    <col min="14" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="33">
+        <v>18</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="44"/>
+    </row>
+    <row r="11" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="50"/>
+    </row>
+    <row r="12" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
+        <v>35</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="63"/>
+    </row>
+    <row r="15" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="13">
+        <v>30</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="66"/>
+    </row>
+    <row r="16" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="69"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="72"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14">
+        <v>43</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="66"/>
+    </row>
+    <row r="19" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="72"/>
+    </row>
+    <row r="20" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="16"/>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="13">
+        <v>39</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="63"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="13">
+        <v>35</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="35"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="38"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="38"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="41"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="13">
+        <v>35</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="35"/>
+    </row>
+    <row r="26" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="7"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="H20:L26"/>
+  <mergeCells count="38">
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="M21:S24"/>
+    <mergeCell ref="M25:S26"/>
+    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G7"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L24"/>
+    <mergeCell ref="H25:L26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="A8:B13"/>
+    <mergeCell ref="A14:B19"/>
+    <mergeCell ref="A20:B26"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G24"/>
     <mergeCell ref="C25:G26"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="H2:L7"/>
     <mergeCell ref="H8:L13"/>
-    <mergeCell ref="H14:L19"/>
     <mergeCell ref="C8:G13"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G17"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="A8:B13"/>
-    <mergeCell ref="A14:B19"/>
-    <mergeCell ref="A20:B26"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G7"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="M3:S4"/>
+    <mergeCell ref="H15:L17"/>
+    <mergeCell ref="H18:L19"/>
+    <mergeCell ref="M5:S5"/>
+    <mergeCell ref="M6:S7"/>
+    <mergeCell ref="M8:S9"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S17"/>
+    <mergeCell ref="M18:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/Comparison.xlsx
+++ b/other/Comparison.xlsx
@@ -301,6 +301,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -309,29 +360,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,14 +414,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -414,15 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,80 +504,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,47 +1793,47 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="33">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="60">
         <v>18</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="21" t="s">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1845,18 +1845,18 @@
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="65"/>
       <c r="M4" s="10"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -1866,41 +1866,41 @@
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="21" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="23"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
       <c r="M6" s="7" t="s">
         <v>21</v>
       </c>
@@ -1912,18 +1912,18 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68"/>
       <c r="M7" s="10"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -1933,148 +1933,148 @@
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="33" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="42" t="s">
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="42" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="50"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="4" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="6"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="4" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="6"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -2089,26 +2089,26 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="61" t="s">
+      <c r="M14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="63"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="13">
         <v>30</v>
       </c>
@@ -2116,61 +2116,61 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="64" t="s">
+      <c r="M15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="66"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="69"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="72"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="13" t="s">
         <v>9</v>
       </c>
@@ -2185,19 +2185,19 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="64" t="s">
+      <c r="M18" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="66"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -2208,26 +2208,26 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="72"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="35"/>
     </row>
     <row r="20" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="13">
         <v>39</v>
       </c>
@@ -2235,26 +2235,26 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="61" t="s">
+      <c r="M20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="63"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="26"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="13">
         <v>35</v>
       </c>
@@ -2262,82 +2262,82 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="33" t="s">
+      <c r="M21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="35"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="62"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="38"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="65"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="38"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="65"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="41"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="68"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="7" t="s">
         <v>12</v>
       </c>
@@ -2352,19 +2352,19 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="33" t="s">
+      <c r="M25" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="35"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="62"/>
     </row>
     <row r="26" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2375,13 +2375,13 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="41"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -2390,25 +2390,25 @@
     <mergeCell ref="M25:S26"/>
     <mergeCell ref="C15:G17"/>
     <mergeCell ref="C18:G19"/>
+    <mergeCell ref="H25:L26"/>
+    <mergeCell ref="C25:G26"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G7"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="H21:L24"/>
-    <mergeCell ref="H25:L26"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G24"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L7"/>
+    <mergeCell ref="H8:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B7"/>
     <mergeCell ref="A8:B13"/>
     <mergeCell ref="A14:B19"/>
     <mergeCell ref="A20:B26"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L7"/>
-    <mergeCell ref="H8:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="C14:G14"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="M2:S2"/>
     <mergeCell ref="M3:S4"/>
